--- a/database/industries/lastic/parta/product/quarterly_seprated.xlsx
+++ b/database/industries/lastic/parta/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\parta\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\parta\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A128DCAF-2E65-4B05-A0CC-EA7C3B70E5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7374B2-AFA3-42BA-B661-7205CA6F9C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="56">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -645,16 +660,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I118"/>
+  <dimension ref="B1:N118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -663,8 +678,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -675,8 +695,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -687,8 +712,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -697,8 +727,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -709,8 +744,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -721,8 +761,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -731,8 +776,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -753,8 +803,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -763,10 +828,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -775,152 +845,247 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
         <v>34</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13">
+      <c r="E12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="13">
         <v>4710</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13">
         <v>5143</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>4525</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>5083</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11">
+      <c r="E13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="11">
         <v>766</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11">
         <v>881</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>1051</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>855</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13">
+      <c r="E14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="13">
         <v>1000</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13">
         <v>938</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>958</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>853</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11">
+      <c r="E15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="11">
         <v>612</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="11">
         <v>631</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>530</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
         <v>7088</v>
       </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
         <v>7593</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>7098</v>
       </c>
-      <c r="I16" s="15">
+      <c r="N16" s="15">
         <v>7644</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -929,130 +1094,210 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="11">
+        <v>18</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="11">
         <v>4</v>
       </c>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11">
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="13">
+        <v>18</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="13">
         <v>144</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>167</v>
       </c>
-      <c r="I19" s="13">
+      <c r="N19" s="13">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="11">
+        <v>18</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="11">
         <v>68</v>
       </c>
-      <c r="I20" s="11">
+      <c r="N20" s="11">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="13">
+        <v>18</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="13">
         <v>27</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>7</v>
       </c>
-      <c r="I21" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N21" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="11">
+        <v>18</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="11">
         <v>44</v>
       </c>
-      <c r="H22" s="11">
+      <c r="M22" s="11">
         <v>25</v>
       </c>
-      <c r="I22" s="11">
+      <c r="N22" s="11">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -1063,18 +1308,33 @@
         <v>0</v>
       </c>
       <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
         <v>219</v>
       </c>
-      <c r="H23" s="15">
+      <c r="M23" s="15">
         <v>267</v>
       </c>
-      <c r="I23" s="15">
+      <c r="N23" s="15">
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1083,34 +1343,54 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -1129,52 +1409,97 @@
       <c r="I26" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="15">
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <v>0</v>
+      </c>
+      <c r="N26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="17">
-        <v>0</v>
-      </c>
-      <c r="H27" s="17">
-        <v>0</v>
-      </c>
-      <c r="I27" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <v>0</v>
+      </c>
+      <c r="N27" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
+      <c r="H28" s="15">
+        <v>0</v>
+      </c>
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
         <v>7088</v>
       </c>
-      <c r="F28" s="15">
-        <v>0</v>
-      </c>
-      <c r="G28" s="15">
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
         <v>7812</v>
       </c>
-      <c r="H28" s="15">
+      <c r="M28" s="15">
         <v>7365</v>
       </c>
-      <c r="I28" s="15">
+      <c r="N28" s="15">
         <v>7902</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1183,8 +1508,13 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1193,8 +1523,13 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1203,10 +1538,15 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -1225,8 +1565,23 @@
       <c r="I32" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1235,10 +1590,15 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1247,152 +1607,247 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="11">
-        <v>0</v>
-      </c>
-      <c r="H35" s="11">
+        <v>18</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
         <v>23204</v>
       </c>
-      <c r="I35" s="11">
+      <c r="N35" s="11">
         <v>244120</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C36" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="13">
+        <v>2691625</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="13">
+        <v>2912034</v>
+      </c>
+      <c r="M36" s="13">
+        <v>3307094</v>
+      </c>
+      <c r="N36" s="13">
+        <v>3733443</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="11">
+        <v>471424</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="11">
+        <v>671168</v>
+      </c>
+      <c r="M37" s="11">
+        <v>857564</v>
+      </c>
+      <c r="N37" s="11">
+        <v>759444</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="13">
+        <v>476252</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="13">
+        <v>620116</v>
+      </c>
+      <c r="M38" s="13">
+        <v>688730</v>
+      </c>
+      <c r="N38" s="13">
+        <v>650629</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="11">
+        <v>292370</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="11">
+        <v>267707</v>
+      </c>
+      <c r="M39" s="11">
+        <v>329923</v>
+      </c>
+      <c r="N39" s="11">
+        <v>373348</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13">
-        <v>2691625</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="13">
-        <v>2912034</v>
-      </c>
-      <c r="H36" s="13">
-        <v>3307094</v>
-      </c>
-      <c r="I36" s="13">
-        <v>3733443</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11">
-        <v>471424</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="11">
-        <v>671168</v>
-      </c>
-      <c r="H37" s="11">
-        <v>857564</v>
-      </c>
-      <c r="I37" s="11">
-        <v>759444</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13">
-        <v>476252</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="13">
-        <v>620116</v>
-      </c>
-      <c r="H38" s="13">
-        <v>688730</v>
-      </c>
-      <c r="I38" s="13">
-        <v>650629</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11">
-        <v>292370</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="11">
-        <v>267707</v>
-      </c>
-      <c r="H39" s="11">
-        <v>329923</v>
-      </c>
-      <c r="I39" s="11">
-        <v>373348</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15">
+        <v>0</v>
+      </c>
+      <c r="F40" s="15">
+        <v>0</v>
+      </c>
+      <c r="G40" s="15">
+        <v>0</v>
+      </c>
+      <c r="H40" s="15">
+        <v>0</v>
+      </c>
+      <c r="I40" s="15">
+        <v>0</v>
+      </c>
+      <c r="J40" s="15">
         <v>3931671</v>
       </c>
-      <c r="F40" s="15">
-        <v>0</v>
-      </c>
-      <c r="G40" s="15">
+      <c r="K40" s="15">
+        <v>0</v>
+      </c>
+      <c r="L40" s="15">
         <v>4471025</v>
       </c>
-      <c r="H40" s="15">
+      <c r="M40" s="15">
         <v>5206515</v>
       </c>
-      <c r="I40" s="15">
+      <c r="N40" s="15">
         <v>5760984</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -1401,130 +1856,210 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="11">
+        <v>18</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="11">
         <v>1845</v>
       </c>
-      <c r="H42" s="11">
+      <c r="M42" s="11">
         <v>953</v>
       </c>
-      <c r="I42" s="11">
+      <c r="N42" s="11">
         <v>62527</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="13">
+        <v>18</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="13">
         <v>86512</v>
       </c>
-      <c r="H43" s="13">
+      <c r="M43" s="13">
         <v>115866</v>
       </c>
-      <c r="I43" s="13">
+      <c r="N43" s="13">
         <v>97332</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="11">
+        <v>18</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="11">
         <v>48283</v>
       </c>
-      <c r="I44" s="11">
+      <c r="N44" s="11">
         <v>35689</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="13">
+        <v>18</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="13">
         <v>17720</v>
       </c>
-      <c r="H45" s="13">
+      <c r="M45" s="13">
         <v>4635</v>
       </c>
-      <c r="I45" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N45" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="11">
+        <v>18</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="11">
         <v>26790</v>
       </c>
-      <c r="H46" s="11">
+      <c r="M46" s="11">
         <v>14963</v>
       </c>
-      <c r="I46" s="11">
+      <c r="N46" s="11">
         <v>17791</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -1535,18 +2070,33 @@
         <v>0</v>
       </c>
       <c r="G47" s="15">
+        <v>0</v>
+      </c>
+      <c r="H47" s="15">
+        <v>0</v>
+      </c>
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
         <v>132867</v>
       </c>
-      <c r="H47" s="15">
+      <c r="M47" s="15">
         <v>184700</v>
       </c>
-      <c r="I47" s="15">
+      <c r="N47" s="15">
         <v>213339</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -1555,34 +2105,54 @@
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="11">
-        <v>0</v>
-      </c>
-      <c r="H49" s="11">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="11">
+        <v>0</v>
+      </c>
+      <c r="M49" s="11">
+        <v>0</v>
+      </c>
+      <c r="N49" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
@@ -1601,54 +2171,99 @@
       <c r="I50" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="15">
+        <v>0</v>
+      </c>
+      <c r="K50" s="15">
+        <v>0</v>
+      </c>
+      <c r="L50" s="15">
+        <v>0</v>
+      </c>
+      <c r="M50" s="15">
+        <v>0</v>
+      </c>
+      <c r="N50" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="17">
-        <v>0</v>
-      </c>
-      <c r="H51" s="17">
-        <v>0</v>
-      </c>
-      <c r="I51" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="17">
+        <v>0</v>
+      </c>
+      <c r="M51" s="17">
+        <v>0</v>
+      </c>
+      <c r="N51" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15">
+        <v>0</v>
+      </c>
+      <c r="F52" s="15">
+        <v>0</v>
+      </c>
+      <c r="G52" s="15">
+        <v>0</v>
+      </c>
+      <c r="H52" s="15">
+        <v>0</v>
+      </c>
+      <c r="I52" s="15">
+        <v>0</v>
+      </c>
+      <c r="J52" s="15">
         <v>3931671</v>
       </c>
-      <c r="F52" s="15">
-        <v>0</v>
-      </c>
-      <c r="G52" s="15">
+      <c r="K52" s="15">
+        <v>0</v>
+      </c>
+      <c r="L52" s="15">
         <v>4603892</v>
       </c>
-      <c r="H52" s="15">
+      <c r="M52" s="15">
         <v>5391215</v>
       </c>
-      <c r="I52" s="15">
+      <c r="N52" s="15">
         <v>5974323</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1657,8 +2272,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1667,8 +2287,13 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1677,10 +2302,15 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -1699,8 +2329,23 @@
       <c r="I56" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1709,10 +2354,15 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -1721,130 +2371,210 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="11">
+        <v>18</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="11">
         <v>527000000</v>
       </c>
-      <c r="G59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="11">
+      <c r="L59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M59" s="11">
         <v>682470588</v>
       </c>
-      <c r="I59" s="11">
+      <c r="N59" s="11">
         <v>726547619</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D60" s="13"/>
-      <c r="E60" s="13">
+      <c r="E60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" s="13">
         <v>562188717</v>
       </c>
-      <c r="F60" s="13">
+      <c r="K60" s="13">
         <v>552568467</v>
       </c>
-      <c r="G60" s="13">
+      <c r="L60" s="13">
         <v>566213105</v>
       </c>
-      <c r="H60" s="13">
+      <c r="M60" s="13">
         <v>730849503</v>
       </c>
-      <c r="I60" s="13">
+      <c r="N60" s="13">
         <v>734495967</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11">
+      <c r="E61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="11">
         <v>627297211</v>
       </c>
-      <c r="F61" s="11">
+      <c r="K61" s="11">
         <v>721272811</v>
       </c>
-      <c r="G61" s="11">
+      <c r="L61" s="11">
         <v>761825199</v>
       </c>
-      <c r="H61" s="11">
+      <c r="M61" s="11">
         <v>815950523</v>
       </c>
-      <c r="I61" s="11">
+      <c r="N61" s="11">
         <v>888238596</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D62" s="13"/>
-      <c r="E62" s="13">
+      <c r="E62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="13">
         <v>509993896</v>
       </c>
-      <c r="F62" s="13">
+      <c r="K62" s="13">
         <v>616168796</v>
       </c>
-      <c r="G62" s="13">
+      <c r="L62" s="13">
         <v>661104478</v>
       </c>
-      <c r="H62" s="13">
+      <c r="M62" s="13">
         <v>718924843</v>
       </c>
-      <c r="I62" s="13">
+      <c r="N62" s="13">
         <v>762753810</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11">
+      <c r="E63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" s="11">
         <v>473755443</v>
       </c>
-      <c r="F63" s="11">
+      <c r="K63" s="11">
         <v>414079156</v>
       </c>
-      <c r="G63" s="11">
+      <c r="L63" s="11">
         <v>424258320</v>
       </c>
-      <c r="H63" s="11">
+      <c r="M63" s="11">
         <v>622496226</v>
       </c>
-      <c r="I63" s="11">
+      <c r="N63" s="11">
         <v>722143133</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -1853,130 +2583,210 @@
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="11">
+        <v>18</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="11">
         <v>461250000</v>
       </c>
-      <c r="H65" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="11">
+      <c r="M65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N65" s="11">
         <v>781587500</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="13">
+        <v>18</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="13">
         <v>738000000</v>
       </c>
-      <c r="G66" s="13">
+      <c r="L66" s="13">
         <v>600777778</v>
       </c>
-      <c r="H66" s="13">
+      <c r="M66" s="13">
         <v>693808383</v>
       </c>
-      <c r="I66" s="13">
+      <c r="N66" s="13">
         <v>853789474</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="11">
+        <v>18</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="11">
         <v>710044118</v>
       </c>
-      <c r="I67" s="11">
+      <c r="N67" s="11">
         <v>939184211</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="13">
+        <v>18</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="13">
         <v>656296296</v>
       </c>
-      <c r="H68" s="13">
+      <c r="M68" s="13">
         <v>662142857</v>
       </c>
-      <c r="I68" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N68" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="11">
+        <v>18</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" s="11">
         <v>611071429</v>
       </c>
-      <c r="G69" s="11">
+      <c r="L69" s="11">
         <v>608863636</v>
       </c>
-      <c r="H69" s="11">
+      <c r="M69" s="11">
         <v>598520000</v>
       </c>
-      <c r="I69" s="11">
+      <c r="N69" s="11">
         <v>684269231</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -1985,32 +2795,52 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2019,8 +2849,13 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2029,8 +2864,13 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2039,10 +2879,15 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2061,8 +2906,23 @@
       <c r="I75" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2071,10 +2931,15 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -2083,152 +2948,247 @@
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="11">
+        <v>18</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" s="11">
         <v>-376</v>
       </c>
-      <c r="G78" s="11">
-        <v>0</v>
-      </c>
-      <c r="H78" s="11">
+      <c r="L78" s="11">
+        <v>0</v>
+      </c>
+      <c r="M78" s="11">
         <v>-30817</v>
       </c>
-      <c r="I78" s="11">
-        <v>-296226</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N78" s="11">
+        <v>-296375</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D79" s="13"/>
-      <c r="E79" s="13">
+      <c r="E79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="13">
         <v>-5421075</v>
       </c>
-      <c r="F79" s="13">
+      <c r="K79" s="13">
         <v>-2626537</v>
       </c>
-      <c r="G79" s="13">
+      <c r="L79" s="13">
         <v>-2824511</v>
       </c>
-      <c r="H79" s="13">
+      <c r="M79" s="13">
         <v>-3331781</v>
       </c>
-      <c r="I79" s="13">
-        <v>-3615878</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N79" s="13">
+        <v>-3476337</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11">
+      <c r="E80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="11">
         <v>-1154916</v>
       </c>
-      <c r="F80" s="11">
+      <c r="K80" s="11">
         <v>-634173</v>
       </c>
-      <c r="G80" s="11">
+      <c r="L80" s="11">
         <v>-631616</v>
       </c>
-      <c r="H80" s="11">
+      <c r="M80" s="11">
         <v>-862667</v>
       </c>
-      <c r="I80" s="11">
-        <v>-701697</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N80" s="11">
+        <v>-677945</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D81" s="13"/>
-      <c r="E81" s="13">
+      <c r="E81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" s="13">
         <v>-1357393</v>
       </c>
-      <c r="F81" s="13">
+      <c r="K81" s="13">
         <v>-556350</v>
       </c>
-      <c r="G81" s="13">
+      <c r="L81" s="13">
         <v>-684045</v>
       </c>
-      <c r="H81" s="13">
+      <c r="M81" s="13">
         <v>-783107</v>
       </c>
-      <c r="I81" s="13">
-        <v>-721052</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N81" s="13">
+        <v>-685897</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11">
+      <c r="E82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" s="11">
         <v>-631855</v>
       </c>
-      <c r="F82" s="11">
+      <c r="K82" s="11">
         <v>-230599</v>
       </c>
-      <c r="G82" s="11">
+      <c r="L82" s="11">
         <v>-331507</v>
       </c>
-      <c r="H82" s="11">
+      <c r="M82" s="11">
         <v>-414785</v>
       </c>
-      <c r="I82" s="11">
-        <v>-367573</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N82" s="11">
+        <v>-354926</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
+        <v>0</v>
+      </c>
+      <c r="F83" s="15">
+        <v>0</v>
+      </c>
+      <c r="G83" s="15">
+        <v>0</v>
+      </c>
+      <c r="H83" s="15">
+        <v>0</v>
+      </c>
+      <c r="I83" s="15">
+        <v>0</v>
+      </c>
+      <c r="J83" s="15">
         <v>-8565239</v>
       </c>
-      <c r="F83" s="15">
+      <c r="K83" s="15">
         <v>-4048035</v>
       </c>
-      <c r="G83" s="15">
+      <c r="L83" s="15">
         <v>-4471679</v>
       </c>
-      <c r="H83" s="15">
+      <c r="M83" s="15">
         <v>-5423157</v>
       </c>
-      <c r="I83" s="15">
-        <v>-5702426</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N83" s="15">
+        <v>-5491480</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -2237,130 +3197,210 @@
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" s="11">
-        <v>0</v>
-      </c>
-      <c r="H85" s="11">
+        <v>18</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L85" s="11">
+        <v>0</v>
+      </c>
+      <c r="M85" s="11">
         <v>-3604</v>
       </c>
-      <c r="I85" s="11">
-        <v>-70644</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N85" s="11">
+        <v>-70678</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="13">
+        <v>18</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="13">
         <v>-559</v>
       </c>
-      <c r="G86" s="13">
+      <c r="L86" s="13">
         <v>-79084</v>
       </c>
-      <c r="H86" s="13">
+      <c r="M86" s="13">
         <v>-118951</v>
       </c>
-      <c r="I86" s="13">
-        <v>-83517</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N86" s="13">
+        <v>-79497</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="11">
+        <v>18</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M87" s="11">
         <v>-52594</v>
       </c>
-      <c r="I87" s="11">
-        <v>-30927</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N87" s="11">
+        <v>-30024</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="13">
+        <v>18</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J88" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K88" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L88" s="13">
         <v>-19690</v>
       </c>
-      <c r="H88" s="13">
+      <c r="M88" s="13">
         <v>-6620</v>
       </c>
-      <c r="I88" s="13">
-        <v>-754</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N88" s="13">
+        <v>-319</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="11">
+        <v>18</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" s="11">
         <v>-6469</v>
       </c>
-      <c r="G89" s="11">
+      <c r="L89" s="11">
         <v>-23116</v>
       </c>
-      <c r="H89" s="11">
+      <c r="M89" s="11">
         <v>-21237</v>
       </c>
-      <c r="I89" s="11">
-        <v>-18709</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N89" s="11">
+        <v>-17992</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
@@ -2368,21 +3408,36 @@
         <v>0</v>
       </c>
       <c r="F90" s="15">
+        <v>0</v>
+      </c>
+      <c r="G90" s="15">
+        <v>0</v>
+      </c>
+      <c r="H90" s="15">
+        <v>0</v>
+      </c>
+      <c r="I90" s="15">
+        <v>0</v>
+      </c>
+      <c r="J90" s="15">
+        <v>0</v>
+      </c>
+      <c r="K90" s="15">
         <v>-7028</v>
       </c>
-      <c r="G90" s="15">
+      <c r="L90" s="15">
         <v>-121890</v>
       </c>
-      <c r="H90" s="15">
+      <c r="M90" s="15">
         <v>-203006</v>
       </c>
-      <c r="I90" s="15">
-        <v>-204551</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N90" s="15">
+        <v>-198510</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -2391,34 +3446,54 @@
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="11">
-        <v>0</v>
-      </c>
-      <c r="G92" s="11">
-        <v>0</v>
-      </c>
-      <c r="H92" s="11">
-        <v>0</v>
-      </c>
-      <c r="I92" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" s="11">
+        <v>0</v>
+      </c>
+      <c r="L92" s="11">
+        <v>0</v>
+      </c>
+      <c r="M92" s="11">
+        <v>0</v>
+      </c>
+      <c r="N92" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
@@ -2437,54 +3512,99 @@
       <c r="I93" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="15">
+        <v>0</v>
+      </c>
+      <c r="K93" s="15">
+        <v>0</v>
+      </c>
+      <c r="L93" s="15">
+        <v>0</v>
+      </c>
+      <c r="M93" s="15">
+        <v>0</v>
+      </c>
+      <c r="N93" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="17">
-        <v>0</v>
-      </c>
-      <c r="G94" s="17">
-        <v>0</v>
-      </c>
-      <c r="H94" s="17">
-        <v>0</v>
-      </c>
-      <c r="I94" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K94" s="17">
+        <v>0</v>
+      </c>
+      <c r="L94" s="17">
+        <v>0</v>
+      </c>
+      <c r="M94" s="17">
+        <v>0</v>
+      </c>
+      <c r="N94" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
+        <v>0</v>
+      </c>
+      <c r="F95" s="15">
+        <v>0</v>
+      </c>
+      <c r="G95" s="15">
+        <v>0</v>
+      </c>
+      <c r="H95" s="15">
+        <v>0</v>
+      </c>
+      <c r="I95" s="15">
+        <v>0</v>
+      </c>
+      <c r="J95" s="15">
         <v>-8565239</v>
       </c>
-      <c r="F95" s="15">
+      <c r="K95" s="15">
         <v>-4055063</v>
       </c>
-      <c r="G95" s="15">
+      <c r="L95" s="15">
         <v>-4593569</v>
       </c>
-      <c r="H95" s="15">
+      <c r="M95" s="15">
         <v>-5626163</v>
       </c>
-      <c r="I95" s="15">
-        <v>-5906977</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N95" s="15">
+        <v>-5689990</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2493,8 +3613,13 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2503,8 +3628,13 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2513,10 +3643,15 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -2535,8 +3670,23 @@
       <c r="I99" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2545,10 +3695,15 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
@@ -2557,152 +3712,247 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="11">
+        <v>18</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="11">
         <v>151</v>
       </c>
-      <c r="G102" s="11">
-        <v>0</v>
-      </c>
-      <c r="H102" s="11">
+      <c r="L102" s="11">
+        <v>0</v>
+      </c>
+      <c r="M102" s="11">
         <v>-7613</v>
       </c>
-      <c r="I102" s="11">
-        <v>-52106</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N102" s="11">
+        <v>-52255</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D103" s="13"/>
-      <c r="E103" s="13">
+      <c r="E103" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J103" s="13">
         <v>1594478</v>
       </c>
-      <c r="F103" s="13">
+      <c r="K103" s="13">
         <v>278868</v>
       </c>
-      <c r="G103" s="13">
+      <c r="L103" s="13">
         <v>87523</v>
       </c>
-      <c r="H103" s="13">
+      <c r="M103" s="13">
         <v>-24687</v>
       </c>
-      <c r="I103" s="13">
-        <v>117565</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N103" s="13">
+        <v>257106</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D104" s="11"/>
-      <c r="E104" s="11">
+      <c r="E104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J104" s="11">
         <v>419600</v>
       </c>
-      <c r="F104" s="11">
+      <c r="K104" s="11">
         <v>148408</v>
       </c>
-      <c r="G104" s="11">
+      <c r="L104" s="11">
         <v>39552</v>
       </c>
-      <c r="H104" s="11">
+      <c r="M104" s="11">
         <v>-5103</v>
       </c>
-      <c r="I104" s="11">
-        <v>57747</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N104" s="11">
+        <v>81499</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D105" s="13"/>
-      <c r="E105" s="13">
+      <c r="E105" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105" s="13">
         <v>62940</v>
       </c>
-      <c r="F105" s="13">
+      <c r="K105" s="13">
         <v>118971</v>
       </c>
-      <c r="G105" s="13">
+      <c r="L105" s="13">
         <v>-63929</v>
       </c>
-      <c r="H105" s="13">
+      <c r="M105" s="13">
         <v>-94377</v>
       </c>
-      <c r="I105" s="13">
-        <v>-70423</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N105" s="13">
+        <v>-35268</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D106" s="11"/>
-      <c r="E106" s="11">
+      <c r="E106" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I106" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J106" s="11">
         <v>20980</v>
       </c>
-      <c r="F106" s="11">
+      <c r="K106" s="11">
         <v>-73663</v>
       </c>
-      <c r="G106" s="11">
+      <c r="L106" s="11">
         <v>-63800</v>
       </c>
-      <c r="H106" s="11">
+      <c r="M106" s="11">
         <v>-84862</v>
       </c>
-      <c r="I106" s="11">
-        <v>5775</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N106" s="11">
+        <v>18422</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
+        <v>0</v>
+      </c>
+      <c r="F107" s="15">
+        <v>0</v>
+      </c>
+      <c r="G107" s="15">
+        <v>0</v>
+      </c>
+      <c r="H107" s="15">
+        <v>0</v>
+      </c>
+      <c r="I107" s="15">
+        <v>0</v>
+      </c>
+      <c r="J107" s="15">
         <v>2097998</v>
       </c>
-      <c r="F107" s="15">
+      <c r="K107" s="15">
         <v>472735</v>
       </c>
-      <c r="G107" s="15">
+      <c r="L107" s="15">
         <v>-654</v>
       </c>
-      <c r="H107" s="15">
+      <c r="M107" s="15">
         <v>-216642</v>
       </c>
-      <c r="I107" s="15">
-        <v>58558</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N107" s="15">
+        <v>269504</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -2711,130 +3961,210 @@
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" s="11">
+        <v>18</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L109" s="11">
         <v>1845</v>
       </c>
-      <c r="H109" s="11">
+      <c r="M109" s="11">
         <v>-2651</v>
       </c>
-      <c r="I109" s="11">
-        <v>-8117</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N109" s="11">
+        <v>-8151</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F110" s="13">
+        <v>18</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K110" s="13">
         <v>179</v>
       </c>
-      <c r="G110" s="13">
+      <c r="L110" s="13">
         <v>7428</v>
       </c>
-      <c r="H110" s="13">
+      <c r="M110" s="13">
         <v>-3085</v>
       </c>
-      <c r="I110" s="13">
-        <v>13815</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N110" s="13">
+        <v>17835</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" s="11">
+        <v>18</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M111" s="11">
         <v>-4311</v>
       </c>
-      <c r="I111" s="11">
-        <v>4762</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N111" s="11">
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D112" s="13"/>
       <c r="E112" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" s="13">
+        <v>18</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H112" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J112" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K112" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L112" s="13">
         <v>-1970</v>
       </c>
-      <c r="H112" s="13">
+      <c r="M112" s="13">
         <v>-1985</v>
       </c>
-      <c r="I112" s="13">
-        <v>-754</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N112" s="13">
+        <v>-319</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" s="11">
+        <v>18</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J113" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K113" s="11">
         <v>2086</v>
       </c>
-      <c r="G113" s="11">
+      <c r="L113" s="11">
         <v>3674</v>
       </c>
-      <c r="H113" s="11">
+      <c r="M113" s="11">
         <v>-6274</v>
       </c>
-      <c r="I113" s="11">
-        <v>-918</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N113" s="11">
+        <v>-201</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
@@ -2842,21 +4172,36 @@
         <v>0</v>
       </c>
       <c r="F114" s="15">
+        <v>0</v>
+      </c>
+      <c r="G114" s="15">
+        <v>0</v>
+      </c>
+      <c r="H114" s="15">
+        <v>0</v>
+      </c>
+      <c r="I114" s="15">
+        <v>0</v>
+      </c>
+      <c r="J114" s="15">
+        <v>0</v>
+      </c>
+      <c r="K114" s="15">
         <v>2265</v>
       </c>
-      <c r="G114" s="15">
+      <c r="L114" s="15">
         <v>10977</v>
       </c>
-      <c r="H114" s="15">
+      <c r="M114" s="15">
         <v>-18306</v>
       </c>
-      <c r="I114" s="15">
-        <v>8788</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N114" s="15">
+        <v>14829</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
@@ -2865,34 +4210,54 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" s="11">
+        <v>18</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K116" s="11">
         <v>1017257</v>
       </c>
-      <c r="G116" s="11">
-        <v>0</v>
-      </c>
-      <c r="H116" s="11">
-        <v>0</v>
-      </c>
-      <c r="I116" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L116" s="11">
+        <v>0</v>
+      </c>
+      <c r="M116" s="11">
+        <v>0</v>
+      </c>
+      <c r="N116" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
@@ -2900,38 +4265,68 @@
         <v>0</v>
       </c>
       <c r="F117" s="15">
+        <v>0</v>
+      </c>
+      <c r="G117" s="15">
+        <v>0</v>
+      </c>
+      <c r="H117" s="15">
+        <v>0</v>
+      </c>
+      <c r="I117" s="15">
+        <v>0</v>
+      </c>
+      <c r="J117" s="15">
+        <v>0</v>
+      </c>
+      <c r="K117" s="15">
         <v>1017257</v>
       </c>
-      <c r="G117" s="15">
-        <v>0</v>
-      </c>
-      <c r="H117" s="15">
-        <v>0</v>
-      </c>
-      <c r="I117" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L117" s="15">
+        <v>0</v>
+      </c>
+      <c r="M117" s="15">
+        <v>0</v>
+      </c>
+      <c r="N117" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
       <c r="E118" s="17">
+        <v>0</v>
+      </c>
+      <c r="F118" s="17">
+        <v>0</v>
+      </c>
+      <c r="G118" s="17">
+        <v>0</v>
+      </c>
+      <c r="H118" s="17">
+        <v>0</v>
+      </c>
+      <c r="I118" s="17">
+        <v>0</v>
+      </c>
+      <c r="J118" s="17">
         <v>2097998</v>
       </c>
-      <c r="F118" s="17">
+      <c r="K118" s="17">
         <v>1492257</v>
       </c>
-      <c r="G118" s="17">
+      <c r="L118" s="17">
         <v>10323</v>
       </c>
-      <c r="H118" s="17">
+      <c r="M118" s="17">
         <v>-234948</v>
       </c>
-      <c r="I118" s="17">
-        <v>67346</v>
+      <c r="N118" s="17">
+        <v>284333</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/lastic/parta/product/quarterly_seprated.xlsx
+++ b/database/industries/lastic/parta/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\parta\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\parta\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7374B2-AFA3-42BA-B661-7205CA6F9C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521975E0-8118-45C6-9FF3-018E4DA4AE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -664,12 +664,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -684,7 +684,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -718,7 +718,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -733,7 +733,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -750,7 +750,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -782,7 +782,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -819,7 +819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -834,7 +834,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -851,7 +851,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -890,7 +890,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -929,7 +929,7 @@
         <v>5083</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -968,7 +968,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>23</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>19</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>21</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>22</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>25</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
@@ -1349,7 +1349,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>29</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>30</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>31</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>7902</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1514,7 +1514,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1529,7 +1529,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1544,7 +1544,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>32</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1596,7 +1596,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>33</v>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>16</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>244120</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>19</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>3733443</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>20</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>759444</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>21</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>650629</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>22</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>373348</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>23</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>5760984</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>34</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>16</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>62527</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>19</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>97332</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>20</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>35689</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>21</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>22</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>17791</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>25</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>213339</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>35</v>
       </c>
@@ -2111,7 +2111,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>27</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
         <v>29</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>30</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>31</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>5974323</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2278,7 +2278,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2293,7 +2293,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2308,7 +2308,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>36</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2360,7 +2360,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>37</v>
       </c>
@@ -2377,7 +2377,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>726547619</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>19</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>734495967</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>20</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>888238596</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>21</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>762753810</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>22</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>722143133</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>39</v>
       </c>
@@ -2589,7 +2589,7 @@
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>16</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>781587500</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>19</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>853789474</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>20</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>939184211</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>21</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>22</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>684269231</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>40</v>
       </c>
@@ -2801,7 +2801,7 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>27</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2855,7 +2855,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2870,7 +2870,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2885,7 +2885,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>42</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2937,7 +2937,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>43</v>
       </c>
@@ -2954,7 +2954,7 @@
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>16</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>-296375</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>19</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>-3476337</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>20</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>-677945</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>21</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>-685897</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>22</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>-354926</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>44</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>-5491480</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>45</v>
       </c>
@@ -3203,7 +3203,7 @@
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>16</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>-70678</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>19</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>-79497</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>20</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>-30024</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>21</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>-319</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>22</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>-17992</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="14" t="s">
         <v>46</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>-198510</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>47</v>
       </c>
@@ -3452,7 +3452,7 @@
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>27</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>48</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="16" t="s">
         <v>30</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>31</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>-5689990</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3619,7 +3619,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3634,7 +3634,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3649,7 +3649,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>49</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3701,7 +3701,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>50</v>
       </c>
@@ -3718,7 +3718,7 @@
       <c r="M101" s="9"/>
       <c r="N101" s="9"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>16</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>-52255</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="12" t="s">
         <v>19</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>257106</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>20</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>81499</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="12" t="s">
         <v>21</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>-35268</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>22</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>18422</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>51</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>269504</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>52</v>
       </c>
@@ -3967,7 +3967,7 @@
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>16</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>-8151</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="12" t="s">
         <v>19</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>17835</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>20</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>5665</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="12" t="s">
         <v>21</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>-319</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>22</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>-201</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="14" t="s">
         <v>53</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>14829</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>54</v>
       </c>
@@ -4216,7 +4216,7 @@
       <c r="M115" s="9"/>
       <c r="N115" s="9"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>27</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="14" t="s">
         <v>55</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="16" t="s">
         <v>31</v>
       </c>
